--- a/sparc_me/resources/templates/version_2_0_0/element_descriptions.xlsx
+++ b/sparc_me/resources/templates/version_2_0_0/element_descriptions.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\clin864\Desktop\sparc-codathon\sparc-me\sparc_me\resources\templates\version_2_0_0\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uoa-my.sharepoint.com/personal/clin864_uoa_auckland_ac_nz/Documents/Desktop/sparc-codathon/sparc-me/sparc_me/resources/templates/version_2_0_0/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4FC58B0-83B9-492B-A682-6984C24FDEAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{C3F3CBDE-C2EB-4AB4-B363-E71F4CF56C9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{543FB970-B863-4453-A355-2CA1DF64D627}"/>
   <bookViews>
-    <workbookView xWindow="-5304" yWindow="4368" windowWidth="10644" windowHeight="10476" firstSheet="5" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-25890" yWindow="255" windowWidth="25605" windowHeight="14160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="code_description" sheetId="6" r:id="rId1"/>
@@ -23,7 +23,7 @@
     <sheet name="subjects" sheetId="1" r:id="rId8"/>
     <sheet name="submission" sheetId="3" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" refMode="R1C1" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="563" uniqueCount="283">
   <si>
     <t>subject_id</t>
   </si>
@@ -942,6 +942,33 @@
   </si>
   <si>
     <t>disease model</t>
+  </si>
+  <si>
+    <t>filename</t>
+  </si>
+  <si>
+    <t>timestamp</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>file type</t>
+  </si>
+  <si>
+    <t>Additional Metadata</t>
+  </si>
+  <si>
+    <t>RRID</t>
+  </si>
+  <si>
+    <t>URL</t>
+  </si>
+  <si>
+    <t>Vendor</t>
+  </si>
+  <si>
+    <t>Version</t>
   </si>
 </sst>
 </file>
@@ -1275,7 +1302,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4621751-FF53-4D2F-95AC-6022247E986F}">
   <dimension ref="A1:E39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="B1" sqref="B1:C1"/>
     </sheetView>
   </sheetViews>
@@ -1952,7 +1979,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9FA973A-BD9F-4FB4-825E-989DBB2C5B8E}">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
@@ -2141,14 +2168,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CF15833-15E3-4C5F-A498-645F4E950DA0}">
   <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="30.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="54.109375" customWidth="1"/>
+    <col min="3" max="3" width="7.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="91.5546875" customWidth="1"/>
     <col min="5" max="5" width="62.6640625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2585,14 +2614,91 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{069309D5-AA84-4C77-B771-4C33131CA79D}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.21875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>274</v>
+      </c>
+      <c r="B2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>275</v>
+      </c>
+      <c r="B3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C3" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>276</v>
+      </c>
+      <c r="B4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C4" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>277</v>
+      </c>
+      <c r="B5" t="s">
+        <v>88</v>
+      </c>
+      <c r="C5" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>278</v>
+      </c>
+      <c r="B6" t="s">
+        <v>89</v>
+      </c>
+      <c r="C6" t="s">
+        <v>140</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2611,13 +2717,78 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26036F2A-4D9E-4DAF-997D-FBC8D672190D}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>279</v>
+      </c>
+      <c r="B2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>280</v>
+      </c>
+      <c r="B3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>281</v>
+      </c>
+      <c r="B4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>282</v>
+      </c>
+      <c r="B5" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>278</v>
+      </c>
+      <c r="B6" t="s">
+        <v>89</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3250,7 +3421,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80B1071E-6A8B-4F58-AAB3-90A284CB5C0C}">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
